--- a/src/test/resources/testdata/NewAccountData.xlsx
+++ b/src/test/resources/testdata/NewAccountData.xlsx
@@ -4,22 +4,214 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9795"/>
+    <workbookView windowWidth="24000" windowHeight="9795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="addNewAccount" sheetId="1" r:id="rId1"/>
+    <sheet name="deposit" sheetId="2" r:id="rId2"/>
+    <sheet name="withdrawal" sheetId="3" r:id="rId3"/>
+    <sheet name="fundTransfer" sheetId="4" r:id="rId4"/>
+    <sheet name="balanceEnquiry" sheetId="5" r:id="rId5"/>
+    <sheet name="miniStatement" sheetId="6" r:id="rId6"/>
+    <sheet name="customStatement" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t xml:space="preserve">Customer ID </t>
   </si>
   <si>
     <t>Initial Deposit</t>
+  </si>
+  <si>
+    <t>Account No.</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Car allowance</t>
+  </si>
+  <si>
+    <t>Gaming Pc</t>
+  </si>
+  <si>
+    <t>Benz</t>
+  </si>
+  <si>
+    <t>Modern house</t>
+  </si>
+  <si>
+    <t>Big business</t>
+  </si>
+  <si>
+    <t>Audemars Piguet</t>
+  </si>
+  <si>
+    <t>Playstation5</t>
+  </si>
+  <si>
+    <t>Mama farm</t>
+  </si>
+  <si>
+    <t>3D printing</t>
+  </si>
+  <si>
+    <t>Tesla Solar glass</t>
+  </si>
+  <si>
+    <t>Lambo Truck</t>
+  </si>
+  <si>
+    <t>Gaming/trading setup</t>
+  </si>
+  <si>
+    <t>Razer</t>
+  </si>
+  <si>
+    <t>Printing biz</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Grocery shopping</t>
+  </si>
+  <si>
+    <t>Rent payment</t>
+  </si>
+  <si>
+    <t>Vacation trip</t>
+  </si>
+  <si>
+    <t>Gasoline refill</t>
+  </si>
+  <si>
+    <t>Phone bill</t>
+  </si>
+  <si>
+    <t>Medical expenses</t>
+  </si>
+  <si>
+    <t>Home renovation</t>
+  </si>
+  <si>
+    <t>Dinner with friends</t>
+  </si>
+  <si>
+    <t>Shopping spree</t>
+  </si>
+  <si>
+    <t>Gym membership</t>
+  </si>
+  <si>
+    <t>Car repair</t>
+  </si>
+  <si>
+    <t>Laptop upgrade</t>
+  </si>
+  <si>
+    <t>Investment in stocks</t>
+  </si>
+  <si>
+    <t>Jewelry purchase</t>
+  </si>
+  <si>
+    <t>Charitable donation</t>
+  </si>
+  <si>
+    <t>Movie tickets</t>
+  </si>
+  <si>
+    <t>Coffee with friends</t>
+  </si>
+  <si>
+    <t>Concert tickets</t>
+  </si>
+  <si>
+    <t>Payers Account</t>
+  </si>
+  <si>
+    <t>Payees Account</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Internet Bill</t>
+  </si>
+  <si>
+    <t>Phone Bill</t>
+  </si>
+  <si>
+    <t>Electricity Bill</t>
+  </si>
+  <si>
+    <t>Gas Bill</t>
+  </si>
+  <si>
+    <t>Water Bill</t>
+  </si>
+  <si>
+    <t>Mortgage Payment</t>
+  </si>
+  <si>
+    <t>Car Payment</t>
+  </si>
+  <si>
+    <t>Netflix Subscription</t>
+  </si>
+  <si>
+    <t>Spotify Subscription</t>
+  </si>
+  <si>
+    <t>Gym Membership</t>
+  </si>
+  <si>
+    <t>Coffee Shop</t>
+  </si>
+  <si>
+    <t>Clothing Store</t>
+  </si>
+  <si>
+    <t>Home Improvement</t>
+  </si>
+  <si>
+    <t>Food Delivery</t>
+  </si>
+  <si>
+    <t>Charity Donation</t>
+  </si>
+  <si>
+    <t>Online Shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account No. </t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Min Transaction Value</t>
+  </si>
+  <si>
+    <t>Transaction No</t>
   </si>
 </sst>
 </file>
@@ -27,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -41,10 +233,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,21 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -87,17 +302,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,14 +313,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,31 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,7 +348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +361,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +375,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,31 +392,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF444654"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,91 +542,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,62 +578,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -406,6 +632,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,7 +664,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,15 +680,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,153 +721,168 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,7 +1204,7 @@
   <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1121,4 +1362,1073 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="22.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="31.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>122391</v>
+      </c>
+      <c r="B2">
+        <v>1999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>122423</v>
+      </c>
+      <c r="B3">
+        <v>200000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>122398</v>
+      </c>
+      <c r="B4">
+        <v>4506</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>122404</v>
+      </c>
+      <c r="B5">
+        <v>88888</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>122399</v>
+      </c>
+      <c r="B6">
+        <v>350650</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>122400</v>
+      </c>
+      <c r="B7">
+        <v>1000000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>122406</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>122394</v>
+      </c>
+      <c r="B9">
+        <v>654</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>122401</v>
+      </c>
+      <c r="B10">
+        <v>8900</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>122402</v>
+      </c>
+      <c r="B11">
+        <v>90100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>122414</v>
+      </c>
+      <c r="B12">
+        <v>20500</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>122390</v>
+      </c>
+      <c r="B13">
+        <v>390000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>122416</v>
+      </c>
+      <c r="B14">
+        <v>7450</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>122420</v>
+      </c>
+      <c r="B15">
+        <v>2250</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>122397</v>
+      </c>
+      <c r="B16">
+        <v>100000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>122393</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>122410</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="22.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="35.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2">
+        <v>122391</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
+      <c r="A3">
+        <v>122423</v>
+      </c>
+      <c r="B3" s="4">
+        <v>500</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4">
+        <v>122398</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5">
+        <v>122404</v>
+      </c>
+      <c r="B5" s="4">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6">
+        <v>122399</v>
+      </c>
+      <c r="B6" s="4">
+        <v>200</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:3">
+      <c r="A7">
+        <v>122400</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:3">
+      <c r="A8">
+        <v>122406</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:3">
+      <c r="A9">
+        <v>122394</v>
+      </c>
+      <c r="B9" s="4">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:3">
+      <c r="A10">
+        <v>122401</v>
+      </c>
+      <c r="B10" s="4">
+        <v>250</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:3">
+      <c r="A11">
+        <v>122402</v>
+      </c>
+      <c r="B11" s="4">
+        <v>800</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:3">
+      <c r="A12">
+        <v>122414</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:3">
+      <c r="A13">
+        <v>122390</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:3">
+      <c r="A14">
+        <v>122416</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15">
+        <v>122420</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:3">
+      <c r="A16">
+        <v>122397</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:3">
+      <c r="A17">
+        <v>122393</v>
+      </c>
+      <c r="B17" s="4">
+        <v>200</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:3">
+      <c r="A18">
+        <v>122410</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="2:3">
+      <c r="B19" s="7">
+        <v>150</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="33.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:4">
+      <c r="A2" s="4">
+        <v>122391</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4567890123</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:4">
+      <c r="A3" s="4">
+        <v>122423</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9876543210</v>
+      </c>
+      <c r="C3" s="5">
+        <v>500</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
+      <c r="A4" s="4">
+        <v>122398</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5555555555</v>
+      </c>
+      <c r="C4" s="5">
+        <v>750</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
+      <c r="A5" s="4">
+        <v>122404</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1111111111</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1250</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
+      <c r="A6" s="4">
+        <v>122399</v>
+      </c>
+      <c r="B6" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>300</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:4">
+      <c r="A7" s="4">
+        <v>122400</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2222222222</v>
+      </c>
+      <c r="C7" s="5">
+        <v>900</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:4">
+      <c r="A8" s="4">
+        <v>122406</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7777777777</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" s="4">
+        <v>122394</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3333333333</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="4">
+        <v>122401</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8888888888</v>
+      </c>
+      <c r="C10" s="5">
+        <v>175</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="4">
+        <v>122402</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4444444444</v>
+      </c>
+      <c r="C11" s="5">
+        <v>80</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
+      <c r="A12" s="4">
+        <v>122414</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6666666666</v>
+      </c>
+      <c r="C12" s="5">
+        <v>200</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
+      <c r="A13" s="4">
+        <v>122390</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1111111111</v>
+      </c>
+      <c r="C13" s="5">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
+      <c r="A14" s="4">
+        <v>122416</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3333333333</v>
+      </c>
+      <c r="C14" s="5">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:4">
+      <c r="A15" s="4">
+        <v>122420</v>
+      </c>
+      <c r="B15" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="C15" s="5">
+        <v>350</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:4">
+      <c r="A16" s="4">
+        <v>122397</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2222222222</v>
+      </c>
+      <c r="C16" s="5">
+        <v>650</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:4">
+      <c r="A17" s="4">
+        <v>122393</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7777777777</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:4">
+      <c r="A18" s="7">
+        <v>122410</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8888888888</v>
+      </c>
+      <c r="C18" s="8">
+        <v>400</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>122391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>122423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>122398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>122404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>122399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>122406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>122394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>122401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>122402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>122414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>122390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>122416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>122420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>122397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>122393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>122410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>122391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>122423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>122398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>122404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>122399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>122406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>122394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>122401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>122402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>122414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>122390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>122416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>122420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>122397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>122393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>122410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="17.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>122391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>122423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>122398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>122404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>122399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>122406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>122394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>122401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>122402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>122414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>122390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>122416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>122420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>122397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>122393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>122410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>